--- a/GoogleORTools/stats/stats_comparision.xlsx
+++ b/GoogleORTools/stats/stats_comparision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\GoogleORTools\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C40CF-BAF7-4ECD-8CD4-8A636DFD031E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8606D8DB-9CEE-4329-9AA3-F6048285CAFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>RPQ</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Wnioski</t>
+  </si>
+  <si>
+    <t>INSA od dr Makuchowskiego dla wszystkich przykładów liczy się w bardzo krótkim czasie &lt;0,1s, przy solverze dla większych ilości zadań (już nawet od 15) czasy do pełnego wykonania solvera sięgają już od 30 sekund do znacznie więcej</t>
+  </si>
+  <si>
+    <t>Im większa ilosć zadań tym większy timeout trzeba ustawić by uzyskać w miare dobre wyniki. Przykładowo dla 20 zadań i 20 maszyn przy czasie timeoutu: 10 sekund otrzymujemy wynik zbliżony do INSA, ale dla 50 zadań i 20 maszyn po 10 sekundach dostajemy wynik o 25% gorszy. Przy 60 sekundach timeoutu mamy mamy wynik o 10% gorszy. Przy 3 min mamy wynik o 2% lepszy</t>
+  </si>
+  <si>
+    <t>INSA daje wyniki przyblżone a ORTools na pełnym czasie działania daje optimum</t>
   </si>
 </sst>
 </file>
@@ -151,11 +160,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -163,6 +168,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -448,124 +459,131 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="5" width="37.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="4" width="37.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="2:5" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+    <row r="3" spans="2:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>

--- a/GoogleORTools/stats/stats_comparision.xlsx
+++ b/GoogleORTools/stats/stats_comparision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\GoogleORTools\stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JA\Pictures\studia\semestr 6\SPD-L\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8606D8DB-9CEE-4329-9AA3-F6048285CAFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B347CE-1F51-4365-8FAF-78164E6AD2F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>RPQ</t>
   </si>
@@ -49,6 +49,39 @@
   </si>
   <si>
     <t>INSA daje wyniki przyblżone a ORTools na pełnym czasie działania daje optimum</t>
+  </si>
+  <si>
+    <t>Dla instacji 2 maszynowych, dla których algorytm Johnsona daje wyniki optymalne czasy wykonywania są zbliżone do czasu działania solvera(solver działa trochę wolniej, jednak jest to niewielka różnica)</t>
+  </si>
+  <si>
+    <t>Solver w porównaniu do algorytmu Neh nawet ustawiony na czas najgorszej z modyfikacji tego algorytmu daje wyniki gorsze. Zwiększając jednak znacząco maskymalny czas trwania solvera jest on w stanie znaleźć rozwiazanie optymalne czego algorytm Neh zazwyczaj nie znajduje.</t>
+  </si>
+  <si>
+    <t>Nie zależnie od porównywanego algorytmu(algorytmu Johnsona, algorytmu Neh czy Tabu Searcha) wszystkie te algorytmy dają lepsze wyniki, jeżeli solver dostanie taki sam czas na obliczenia. Zaletą jednak solvera nad nimi jest to, że ustawienie dostatecznie dużego czasu(lub w ogóle nie ustawianie maksymalnego czasu) spowoduje, że solver odnajdzie rozwiązanie optymalne. Zatrzymanie solvera w odpowiednim momencie może nie dać rozwiazania optymalnego, ale wciąż rozwiązanie lepsze niż to które dawały wcześniejsze algorytmy.</t>
+  </si>
+  <si>
+    <t>Wyjątkiem od powyższego wniosku jest algorytm przeszukania zupełnego dla większości instacji(już od 20 zadań), który zawsze w takich przypadkach daje rozwiązanie optymalne, jednak solver daje także rozwiazanie optymalne dla dużo mniejszych czasów</t>
+  </si>
+  <si>
+    <t>Jeżeli zarówno solver jak i wybrany algorytm dadzą te same czasy(np. oba algorytmu dały cmax optymalne) wtedy zazwyczaj zwracana kolejność jest inna w obu przypadkach. W przypadku rozwiązania optymalnego oznaczać to będzie, że dana instacja posiada kilka rozwiązań optymalnych( jest kilka możliwych kolejności, które dają takie same optymalne rozwiązanie)</t>
+  </si>
+  <si>
+    <t>Algorytm Schrage działa szybciej niż solver, zaś solver dla tych samych czasów daje gorsze rozwiązanie, jednak dając mu więcej czasu znajduje on rozwiazanie optymalne.</t>
+  </si>
+  <si>
+    <t>Porównując solver do algorytmu Carlier czyli dwie metody dające rozwiązanie optymalne dla problemu RPQ można zauważyć, że dla instacji większych niż około 10 zadań solver daje niemal zawsze lepszy czas przy szukaniu rozwiązania optymalnego. W przypadku, w którym algorytm Carlier trafia na rozwiązanie optymalne z małą liczbą rozgałęzień czasy między tym algorytmem a solverem są porównywalne.</t>
+  </si>
+  <si>
+    <t>Chociaż zarówno algorytm Carlier jak i solver dają rozwiązanie optymalne to kolejności, które zwracają często się różnią. Pokazuje to, że dany zestaw danych ma kilka kolejności, które dają rozwiązanie optymalne.</t>
+  </si>
+  <si>
+    <t>W porównaniu do tabu searcha solver daje znacznie lepsze wyniki zarówno pod względem czasu jak i rozwiązania.</t>
+  </si>
+  <si>
+    <t>Solver daje takie same wyniki jak dla instacji od dr Makuchowskiego. Czas potrzebny solverowi jest także bardzo mały(ok. 1 sekundy).</t>
+  </si>
+  <si>
+    <t>Mimo tych samych wyników solver daje inne kolejności jako wyniki, jednak otrzymane kolejności dają także rozwiązanie optymalne.</t>
   </si>
 </sst>
 </file>
@@ -169,11 +202,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -456,27 +489,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="4" width="37.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:5" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -493,97 +526,135 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="2:5" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="2:5" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="2:5" ht="255.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="7" spans="2:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
